--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1709.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1709.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2641914176374462</v>
+        <v>0.7829526662826538</v>
       </c>
       <c r="B1">
-        <v>1.028776411556881</v>
+        <v>2.165490388870239</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.554818480441257</v>
+        <v>1.08585786819458</v>
       </c>
       <c r="E1">
-        <v>1.724777949885011</v>
+        <v>0.5727079510688782</v>
       </c>
     </row>
   </sheetData>
